--- a/analisis/resultados/argentina/variables.xlsx
+++ b/analisis/resultados/argentina/variables.xlsx
@@ -16,8 +16,9 @@
     <sheet name="exportacion_gas" sheetId="7" r:id="rId7"/>
     <sheet name="precio_externo_gas" sheetId="8" r:id="rId8"/>
     <sheet name="subsidios" sheetId="9" r:id="rId9"/>
-    <sheet name="tipo_cambio" sheetId="10" r:id="rId10"/>
-    <sheet name="ipc" sheetId="11" r:id="rId11"/>
+    <sheet name="ganancia_y_pbi" sheetId="10" r:id="rId10"/>
+    <sheet name="tipo_cambio" sheetId="11" r:id="rId11"/>
+    <sheet name="ipc" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3008,6 +3009,1925 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>anio</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>unidad</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ganancia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1882</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1883</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1884</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1885</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1886</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1887</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1888</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1889</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1890</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1891</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1892</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1893</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1894</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1895</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1896</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1897</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1898</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1899</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1900</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1901</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1902</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>1903</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1904</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>1905</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1906</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>1907</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1908</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1909</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1910</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1911</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1912</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>1913</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1914</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1915</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1916</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1917</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>1918</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1919</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1920</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1921</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1922</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>1923</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1924</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>1925</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>1926</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>1927</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1928</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>1929</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1930</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1931</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1932</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1933</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1934</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1935</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1936</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>3.786328978470311e-010</v>
+      </c>
+      <c r="D56">
+        <v>7.121423702062768e-010</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1937</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>4.762966790353284e-010</v>
+      </c>
+      <c r="D57">
+        <v>7.839281584993398e-010</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1938</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>4.356703970099044e-010</v>
+      </c>
+      <c r="D58">
+        <v>7.811325950782876e-010</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1939</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>4.485405007602161e-010</v>
+      </c>
+      <c r="D59">
+        <v>8.237536589771723e-010</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1940</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>4.802105844660954e-010</v>
+      </c>
+      <c r="D60">
+        <v>8.558927579959078e-010</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1941</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>5.183118343746072e-010</v>
+      </c>
+      <c r="D61">
+        <v>9.244520656156664e-010</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1942</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>6.504362433917652e-010</v>
+      </c>
+      <c r="D62">
+        <v>9.876692186604377e-010</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1943</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>7.040766639585892e-010</v>
+      </c>
+      <c r="D63">
+        <v>9.9187784283397e-010</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1944</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>7.995747491325972e-010</v>
+      </c>
+      <c r="D64">
+        <v>1.100175499127734e-009</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1945</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>8.565262867122379e-010</v>
+      </c>
+      <c r="D65">
+        <v>1.275092147242469e-009</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1946</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>1.208136902959182e-009</v>
+      </c>
+      <c r="D66">
+        <v>1.634429193217931e-009</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1947</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>1.469649563023587e-009</v>
+      </c>
+      <c r="D67">
+        <v>2.095938302930586e-009</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1948</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>1.368818436200153e-009</v>
+      </c>
+      <c r="D68">
+        <v>2.541118939996176e-009</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1949</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>1.277481390567474e-009</v>
+      </c>
+      <c r="D69">
+        <v>3.341854607627797e-009</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1950</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>1.424404736634974e-009</v>
+      </c>
+      <c r="D70">
+        <v>4.315514371398579e-009</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1951</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>2.747553016531007e-009</v>
+      </c>
+      <c r="D71">
+        <v>6.129914551771385e-009</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1952</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>3.676282692454776e-009</v>
+      </c>
+      <c r="D72">
+        <v>8.069016566553696e-009</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1953</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>3.715177036320357e-009</v>
+      </c>
+      <c r="D73">
+        <v>8.836819683391549e-009</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1954</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>3.44656465471421e-009</v>
+      </c>
+      <c r="D74">
+        <v>9.555864506239178e-009</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1955</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>4.350591830239242e-009</v>
+      </c>
+      <c r="D75">
+        <v>1.149107883521976e-008</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1956</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>7.319257135680972e-009</v>
+      </c>
+      <c r="D76">
+        <v>1.339066830815813e-008</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1957</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>8.953947661079963e-009</v>
+      </c>
+      <c r="D77">
+        <v>1.756018587235834e-008</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1958</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>1.199521792494891e-008</v>
+      </c>
+      <c r="D78">
+        <v>2.452377707897952e-008</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1959</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>3.314026916118618e-008</v>
+      </c>
+      <c r="D79">
+        <v>4.902271614072937e-008</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1960</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>4.031790477499984e-008</v>
+      </c>
+      <c r="D80">
+        <v>6.73119938864621e-008</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1961</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>4.384016200941099e-008</v>
+      </c>
+      <c r="D81">
+        <v>8.301955056896762e-008</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1962</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>6.301956002413408e-008</v>
+      </c>
+      <c r="D82">
+        <v>1.06143539569959e-007</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1963</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>8.640456254412041e-008</v>
+      </c>
+      <c r="D83">
+        <v>1.304375501722195e-007</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1964</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>1.192426803296122e-007</v>
+      </c>
+      <c r="D84">
+        <v>1.782710011923187e-007</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1965</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>1.563157939259733e-007</v>
+      </c>
+      <c r="D85">
+        <v>2.538611681747706e-007</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1966</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>1.872542702043722e-007</v>
+      </c>
+      <c r="D86">
+        <v>3.417884021166453e-007</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1967</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>2.566260303564471e-007</v>
+      </c>
+      <c r="D87">
+        <v>4.599410598205048e-007</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1968</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>3.18559274229467e-007</v>
+      </c>
+      <c r="D88">
+        <v>5.656293670021422e-007</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1969</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>4.110735394089311e-007</v>
+      </c>
+      <c r="D89">
+        <v>6.700237036799608e-007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1970</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>4.613880989422802e-007</v>
+      </c>
+      <c r="D90">
+        <v>8.135881586926926e-007</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1971</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>6.515827296509775e-007</v>
+      </c>
+      <c r="D91">
+        <v>1.137388421777747e-006</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1972</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>1.163113931377933e-006</v>
+      </c>
+      <c r="D92">
+        <v>1.839937063360858e-006</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1973</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>1.943901501706483e-006</v>
+      </c>
+      <c r="D93">
+        <v>3.059743262158034e-006</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1974</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>2.39863956439965e-006</v>
+      </c>
+      <c r="D94">
+        <v>4.005930259602089e-006</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1975</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>7.215404297176235e-006</v>
+      </c>
+      <c r="D95">
+        <v>1.126141799978626e-005</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1976</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>5.37197808369143e-005</v>
+      </c>
+      <c r="D96">
+        <v>6.12563313360916e-005</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1977</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.0001517401466186602</v>
+      </c>
+      <c r="D97">
+        <v>0.0001798928864677723</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1978</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.0003525875823177378</v>
+      </c>
+      <c r="D98">
+        <v>0.0004796298882810422</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1979</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.0008628139646630215</v>
+      </c>
+      <c r="D99">
+        <v>0.001330983808955194</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1980</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.001588145221563072</v>
+      </c>
+      <c r="D100">
+        <v>0.002715067121917071</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1981</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.003442131914904832</v>
+      </c>
+      <c r="D101">
+        <v>0.005235502467203733</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1982</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.01150652428924604</v>
+      </c>
+      <c r="D102">
+        <v>0.01342731512917989</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1983</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.0512460856736307</v>
+      </c>
+      <c r="D103">
+        <v>0.06203038602136852</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1984</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.2670689155339064</v>
+      </c>
+      <c r="D104">
+        <v>0.4598054436258973</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1985</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>1.743065444040023</v>
+      </c>
+      <c r="D105">
+        <v>3.303677985558841</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1986</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>3.235411972156777</v>
+      </c>
+      <c r="D106">
+        <v>6.749048986932803</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1987</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>8.357196723618083</v>
+      </c>
+      <c r="D107">
+        <v>15.95981848369131</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1988</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>46.07106365455775</v>
+      </c>
+      <c r="D108">
+        <v>69.31076152279937</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1989</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>1388.745213516759</v>
+      </c>
+      <c r="D109">
+        <v>2049.269704837191</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1990</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>24558.22617117998</v>
+      </c>
+      <c r="D110">
+        <v>48806.82319040017</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1991</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>73945.82342824858</v>
+      </c>
+      <c r="D111">
+        <v>146517.2206835842</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1992</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>89655.65438867919</v>
+      </c>
+      <c r="D112">
+        <v>201847.867985051</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1993</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>83574.15696121698</v>
+      </c>
+      <c r="D113">
+        <v>236504.9806227668</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1994</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>107718.7163134043</v>
+      </c>
+      <c r="D114">
+        <v>259328.2545874005</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1995</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>109071.9409016024</v>
+      </c>
+      <c r="D115">
+        <v>261831.0412144535</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1996</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>129489.5416880721</v>
+      </c>
+      <c r="D116">
+        <v>278182.3609446906</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1997</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>148172.6542772428</v>
+      </c>
+      <c r="D117">
+        <v>301546.23370303</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1998</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>151208.5450987202</v>
+      </c>
+      <c r="D118">
+        <v>310074.1539241858</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1999</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>139835.6544664368</v>
+      </c>
+      <c r="D119">
+        <v>296231.7507692433</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>2000</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>145267.5539697583</v>
+      </c>
+      <c r="D120">
+        <v>299121.0244591194</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>2001</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>138936.0603979041</v>
+      </c>
+      <c r="D121">
+        <v>284874.369931254</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>2002</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>169352.3293383526</v>
+      </c>
+      <c r="D122">
+        <v>333830.7177801788</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>2003</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>214940.3057859961</v>
+      </c>
+      <c r="D123">
+        <v>404410.040573429</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>2004</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>250850.016272151</v>
+      </c>
+      <c r="D124">
+        <v>485115.1947247547</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>2005</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>299193.8929771531</v>
+      </c>
+      <c r="D125">
+        <v>582538.1729372747</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>2006</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>364129.7398506061</v>
+      </c>
+      <c r="D126">
+        <v>715904.2717338484</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>2007</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>453534.3036464996</v>
+      </c>
+      <c r="D127">
+        <v>896980.174071903</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>2008</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>581823.8166398524</v>
+      </c>
+      <c r="D128">
+        <v>1149646.090583636</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>2009</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>545754.943017186</v>
+      </c>
+      <c r="D129">
+        <v>1247929.26892502</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>2010</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>773503.3230459177</v>
+      </c>
+      <c r="D130">
+        <v>1661720.925944582</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>2011</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>1003955.568143824</v>
+      </c>
+      <c r="D131">
+        <v>2179024.103630777</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>2012</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>1138597.751409712</v>
+      </c>
+      <c r="D132">
+        <v>2637913.84821555</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>2013</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>1394018.915513814</v>
+      </c>
+      <c r="D133">
+        <v>3348308.488227206</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>2014</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>2010866.046919744</v>
+      </c>
+      <c r="D134">
+        <v>4579086.425410098</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>2015</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>2561525.190400322</v>
+      </c>
+      <c r="D135">
+        <v>5954510.895692342</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>2016</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>3612431.171132827</v>
+      </c>
+      <c r="D136">
+        <v>8228159.556536429</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>2017</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>4641044.791806787</v>
+      </c>
+      <c r="D137">
+        <v>10660228.49480845</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>2018</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>6732350.582808398</v>
+      </c>
+      <c r="D138">
+        <v>14542722.14809528</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>2019</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Millones de pesos corrientes</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>10024582.20594435</v>
+      </c>
+      <c r="D139">
+        <v>21447249.85979874</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3027,12 +4947,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>sobrevaluacion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tcp</t>
         </is>
       </c>
     </row>
@@ -3044,10 +4964,10 @@
         <v>3.01e-013</v>
       </c>
       <c r="C2">
+        <v>2.914449757784314e-013</v>
+      </c>
+      <c r="D2">
         <v>0.9682557334831609</v>
-      </c>
-      <c r="D2">
-        <v>2.914449757784314e-013</v>
       </c>
     </row>
     <row r="3">
@@ -3058,10 +4978,10 @@
         <v>3.03e-013</v>
       </c>
       <c r="C3">
+        <v>2.846514194602302e-013</v>
+      </c>
+      <c r="D3">
         <v>0.9394436285816178</v>
-      </c>
-      <c r="D3">
-        <v>2.846514194602302e-013</v>
       </c>
     </row>
     <row r="4">
@@ -3072,10 +4992,10 @@
         <v>3.07e-013</v>
       </c>
       <c r="C4">
+        <v>2.617783164912612e-013</v>
+      </c>
+      <c r="D4">
         <v>0.8526980993200691</v>
-      </c>
-      <c r="D4">
-        <v>2.617783164912612e-013</v>
       </c>
     </row>
     <row r="5">
@@ -3086,10 +5006,10 @@
         <v>3.27e-013</v>
       </c>
       <c r="C5">
+        <v>2.866002299343679e-013</v>
+      </c>
+      <c r="D5">
         <v>0.8764533025515838</v>
-      </c>
-      <c r="D5">
-        <v>2.866002299343679e-013</v>
       </c>
     </row>
     <row r="6">
@@ -3100,10 +5020,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C6">
+        <v>3.288823563737724e-013</v>
+      </c>
+      <c r="D6">
         <v>0.9788165368267036</v>
-      </c>
-      <c r="D6">
-        <v>3.288823563737724e-013</v>
       </c>
     </row>
     <row r="7">
@@ -3114,10 +5034,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C7">
+        <v>3.556862071965515e-013</v>
+      </c>
+      <c r="D7">
         <v>1.058589902370689</v>
-      </c>
-      <c r="D7">
-        <v>3.556862071965515e-013</v>
       </c>
     </row>
     <row r="8">
@@ -3128,10 +5048,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C8">
+        <v>3.527801582312046e-013</v>
+      </c>
+      <c r="D8">
         <v>1.04994094711668</v>
-      </c>
-      <c r="D8">
-        <v>3.527801582312046e-013</v>
       </c>
     </row>
     <row r="9">
@@ -3142,10 +5062,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C9">
+        <v>3.851705937156042e-013</v>
+      </c>
+      <c r="D9">
         <v>1.146341052725013</v>
-      </c>
-      <c r="D9">
-        <v>3.851705937156042e-013</v>
       </c>
     </row>
     <row r="10">
@@ -3156,10 +5076,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C10">
+        <v>4.062202255316349e-013</v>
+      </c>
+      <c r="D10">
         <v>1.208988766463199</v>
-      </c>
-      <c r="D10">
-        <v>4.062202255316349e-013</v>
       </c>
     </row>
     <row r="11">
@@ -3170,10 +5090,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C11">
+        <v>4.743077825042828e-013</v>
+      </c>
+      <c r="D11">
         <v>1.411630305072271</v>
-      </c>
-      <c r="D11">
-        <v>4.743077825042828e-013</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +5104,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C12">
+        <v>4.323780344615506e-013</v>
+      </c>
+      <c r="D12">
         <v>1.286839388278425</v>
-      </c>
-      <c r="D12">
-        <v>4.323780344615506e-013</v>
       </c>
     </row>
     <row r="13">
@@ -3198,10 +5118,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C13">
+        <v>4.152889024769395e-013</v>
+      </c>
+      <c r="D13">
         <v>1.235978876419463</v>
-      </c>
-      <c r="D13">
-        <v>4.152889024769395e-013</v>
       </c>
     </row>
     <row r="14">
@@ -3212,10 +5132,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C14">
+        <v>4.530123816776056e-013</v>
+      </c>
+      <c r="D14">
         <v>1.348251135945255</v>
-      </c>
-      <c r="D14">
-        <v>4.530123816776056e-013</v>
       </c>
     </row>
     <row r="15">
@@ -3226,10 +5146,10 @@
         <v>3.36e-013</v>
       </c>
       <c r="C15">
+        <v>6.42068870648753e-013</v>
+      </c>
+      <c r="D15">
         <v>1.910919257883194</v>
-      </c>
-      <c r="D15">
-        <v>6.42068870648753e-013</v>
       </c>
     </row>
     <row r="16">
@@ -3240,10 +5160,10 @@
         <v>3.91e-013</v>
       </c>
       <c r="C16">
+        <v>7.848443430683273e-013</v>
+      </c>
+      <c r="D16">
         <v>2.007274534701605</v>
-      </c>
-      <c r="D16">
-        <v>7.848443430683273e-013</v>
       </c>
     </row>
     <row r="17">
@@ -3254,10 +5174,10 @@
         <v>5e-013</v>
       </c>
       <c r="C17">
+        <v>9.758800971647231e-013</v>
+      </c>
+      <c r="D17">
         <v>1.951760194329446</v>
-      </c>
-      <c r="D17">
-        <v>9.758800971647231e-013</v>
       </c>
     </row>
     <row r="18">
@@ -3268,10 +5188,10 @@
         <v>5e-013</v>
       </c>
       <c r="C18">
+        <v>1.193580734693445e-012</v>
+      </c>
+      <c r="D18">
         <v>2.387161469386891</v>
-      </c>
-      <c r="D18">
-        <v>1.193580734693445e-012</v>
       </c>
     </row>
     <row r="19">
@@ -3282,10 +5202,10 @@
         <v>5e-013</v>
       </c>
       <c r="C19">
+        <v>1.49176750286427e-012</v>
+      </c>
+      <c r="D19">
         <v>2.98353500572854</v>
-      </c>
-      <c r="D19">
-        <v>1.49176750286427e-012</v>
       </c>
     </row>
     <row r="20">
@@ -3296,10 +5216,10 @@
         <v>5e-013</v>
       </c>
       <c r="C20">
+        <v>1.468462691056361e-012</v>
+      </c>
+      <c r="D20">
         <v>2.936925382112723</v>
-      </c>
-      <c r="D20">
-        <v>1.468462691056361e-012</v>
       </c>
     </row>
     <row r="21">
@@ -3310,10 +5230,10 @@
         <v>6.9e-013</v>
       </c>
       <c r="C21">
+        <v>1.668203054635273e-012</v>
+      </c>
+      <c r="D21">
         <v>2.417685586427933</v>
-      </c>
-      <c r="D21">
-        <v>1.668203054635273e-012</v>
       </c>
     </row>
     <row r="22">
@@ -3324,10 +5244,10 @@
         <v>1.8e-012</v>
       </c>
       <c r="C22">
+        <v>1.865707016536708e-012</v>
+      </c>
+      <c r="D22">
         <v>1.036503898075949</v>
-      </c>
-      <c r="D22">
-        <v>1.865707016536708e-012</v>
       </c>
     </row>
     <row r="23">
@@ -3338,10 +5258,10 @@
         <v>1.8e-012</v>
       </c>
       <c r="C23">
+        <v>2.215620682936727e-012</v>
+      </c>
+      <c r="D23">
         <v>1.230900379409293</v>
-      </c>
-      <c r="D23">
-        <v>2.215620682936727e-012</v>
       </c>
     </row>
     <row r="24">
@@ -3352,10 +5272,10 @@
         <v>1.8e-012</v>
       </c>
       <c r="C24">
+        <v>2.750960112547294e-012</v>
+      </c>
+      <c r="D24">
         <v>1.528311173637385</v>
-      </c>
-      <c r="D24">
-        <v>2.750960112547294e-012</v>
       </c>
     </row>
     <row r="25">
@@ -3366,10 +5286,10 @@
         <v>8.060000000000001e-012</v>
       </c>
       <c r="C25">
+        <v>6.661870546578436e-012</v>
+      </c>
+      <c r="D25">
         <v>0.8265348072677959</v>
-      </c>
-      <c r="D25">
-        <v>6.661870546578436e-012</v>
       </c>
     </row>
     <row r="26">
@@ -3380,10 +5300,10 @@
         <v>8.28e-012</v>
       </c>
       <c r="C26">
+        <v>7.643394706684082e-012</v>
+      </c>
+      <c r="D26">
         <v>0.9231153027396234</v>
-      </c>
-      <c r="D26">
-        <v>7.643394706684082e-012</v>
       </c>
     </row>
     <row r="27">
@@ -3394,10 +5314,10 @@
         <v>8.29e-012</v>
       </c>
       <c r="C27">
+        <v>7.91345035478734e-012</v>
+      </c>
+      <c r="D27">
         <v>0.9545778473808613</v>
-      </c>
-      <c r="D27">
-        <v>7.91345035478734e-012</v>
       </c>
     </row>
     <row r="28">
@@ -3408,10 +5328,10 @@
         <v>1.16e-011</v>
       </c>
       <c r="C28">
+        <v>1.102593490644749e-011</v>
+      </c>
+      <c r="D28">
         <v>0.9505116298661626</v>
-      </c>
-      <c r="D28">
-        <v>1.102593490644749e-011</v>
       </c>
     </row>
     <row r="29">
@@ -3422,10 +5342,10 @@
         <v>1.39e-011</v>
       </c>
       <c r="C29">
+        <v>1.368981402740116e-011</v>
+      </c>
+      <c r="D29">
         <v>0.984878707007278</v>
-      </c>
-      <c r="D29">
-        <v>1.368981402740116e-011</v>
       </c>
     </row>
     <row r="30">
@@ -3436,10 +5356,10 @@
         <v>1.41e-011</v>
       </c>
       <c r="C30">
+        <v>1.596118318709646e-011</v>
+      </c>
+      <c r="D30">
         <v>1.131998807595494</v>
-      </c>
-      <c r="D30">
-        <v>1.596118318709646e-011</v>
       </c>
     </row>
     <row r="31">
@@ -3450,10 +5370,10 @@
         <v>1.68e-011</v>
       </c>
       <c r="C31">
+        <v>1.933484732146814e-011</v>
+      </c>
+      <c r="D31">
         <v>1.150883769135008</v>
-      </c>
-      <c r="D31">
-        <v>1.933484732146814e-011</v>
       </c>
     </row>
     <row r="32">
@@ -3464,10 +5384,10 @@
         <v>2.07e-011</v>
       </c>
       <c r="C32">
+        <v>2.491185820885275e-011</v>
+      </c>
+      <c r="D32">
         <v>1.203471411055688</v>
-      </c>
-      <c r="D32">
-        <v>2.491185820885275e-011</v>
       </c>
     </row>
     <row r="33">
@@ -3478,10 +5398,10 @@
         <v>3.31e-011</v>
       </c>
       <c r="C33">
+        <v>3.281393980941069e-011</v>
+      </c>
+      <c r="D33">
         <v>0.9913576981695074</v>
-      </c>
-      <c r="D33">
-        <v>3.281393980941069e-011</v>
       </c>
     </row>
     <row r="34">
@@ -3492,10 +5412,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="C34">
+        <v>3.527585316582835e-011</v>
+      </c>
+      <c r="D34">
         <v>1.007881519023667</v>
-      </c>
-      <c r="D34">
-        <v>3.527585316582835e-011</v>
       </c>
     </row>
     <row r="35">
@@ -3506,10 +5426,10 @@
         <v>3.5e-011</v>
       </c>
       <c r="C35">
+        <v>3.345806827809946e-011</v>
+      </c>
+      <c r="D35">
         <v>0.9559448079456987</v>
-      </c>
-      <c r="D35">
-        <v>3.345806827809946e-011</v>
       </c>
     </row>
     <row r="36">
@@ -3520,10 +5440,10 @@
         <v>3.77e-011</v>
       </c>
       <c r="C36">
+        <v>3.569785208225281e-011</v>
+      </c>
+      <c r="D36">
         <v>0.946892628176467</v>
-      </c>
-      <c r="D36">
-        <v>3.569785208225281e-011</v>
       </c>
     </row>
     <row r="37">
@@ -3534,10 +5454,10 @@
         <v>4.59e-011</v>
       </c>
       <c r="C37">
+        <v>4.772027305048387e-011</v>
+      </c>
+      <c r="D37">
         <v>1.039657364934289</v>
-      </c>
-      <c r="D37">
-        <v>4.772027305048387e-011</v>
       </c>
     </row>
     <row r="38">
@@ -3548,10 +5468,10 @@
         <v>8e-011</v>
       </c>
       <c r="C38">
+        <v>7.458349597619671e-011</v>
+      </c>
+      <c r="D38">
         <v>0.9322936997024589</v>
-      </c>
-      <c r="D38">
-        <v>7.458349597619671e-011</v>
       </c>
     </row>
     <row r="39">
@@ -3562,10 +5482,10 @@
         <v>8.68e-011</v>
       </c>
       <c r="C39">
+        <v>1.137583147578198e-010</v>
+      </c>
+      <c r="D39">
         <v>1.310579663108523</v>
-      </c>
-      <c r="D39">
-        <v>1.137583147578198e-010</v>
       </c>
     </row>
     <row r="40">
@@ -3576,10 +5496,10 @@
         <v>8.68e-011</v>
       </c>
       <c r="C40">
+        <v>1.264758559732277e-010</v>
+      </c>
+      <c r="D40">
         <v>1.457095114898937</v>
-      </c>
-      <c r="D40">
-        <v>1.264758559732277e-010</v>
       </c>
     </row>
     <row r="41">
@@ -3590,10 +5510,10 @@
         <v>2.57e-010</v>
       </c>
       <c r="C41">
+        <v>3.74002397389071e-010</v>
+      </c>
+      <c r="D41">
         <v>1.455262246650082</v>
-      </c>
-      <c r="D41">
-        <v>3.74002397389071e-010</v>
       </c>
     </row>
     <row r="42">
@@ -3604,10 +5524,10 @@
         <v>1.83e-009</v>
       </c>
       <c r="C42">
+        <v>2.001721362135581e-009</v>
+      </c>
+      <c r="D42">
         <v>1.093836809910153</v>
-      </c>
-      <c r="D42">
-        <v>2.001721362135581e-009</v>
       </c>
     </row>
     <row r="43">
@@ -3618,10 +5538,10 @@
         <v>4.05e-009</v>
       </c>
       <c r="C43">
+        <v>4.817638854131992e-009</v>
+      </c>
+      <c r="D43">
         <v>1.189540457810368</v>
-      </c>
-      <c r="D43">
-        <v>4.817638854131992e-009</v>
       </c>
     </row>
     <row r="44">
@@ -3632,10 +5552,10 @@
         <v>7.9e-009</v>
       </c>
       <c r="C44">
+        <v>1.26226303914943e-008</v>
+      </c>
+      <c r="D44">
         <v>1.597801315379025</v>
-      </c>
-      <c r="D44">
-        <v>1.26226303914943e-008</v>
       </c>
     </row>
     <row r="45">
@@ -3646,10 +5566,10 @@
         <v>1.31e-008</v>
       </c>
       <c r="C45">
+        <v>2.462601971542461e-008</v>
+      </c>
+      <c r="D45">
         <v>1.87984883323852</v>
-      </c>
-      <c r="D45">
-        <v>2.462601971542461e-008</v>
       </c>
     </row>
     <row r="46">
@@ -3660,10 +5580,10 @@
         <v>1.83e-008</v>
       </c>
       <c r="C46">
+        <v>4.162040187202227e-008</v>
+      </c>
+      <c r="D46">
         <v>2.274338900110507</v>
-      </c>
-      <c r="D46">
-        <v>4.162040187202227e-008</v>
       </c>
     </row>
     <row r="47">
@@ -3674,10 +5594,10 @@
         <v>4.41e-008</v>
       </c>
       <c r="C47">
+        <v>8.190042358174585e-008</v>
+      </c>
+      <c r="D47">
         <v>1.857152462171108</v>
-      </c>
-      <c r="D47">
-        <v>8.190042358174585e-008</v>
       </c>
     </row>
     <row r="48">
@@ -3688,10 +5608,10 @@
         <v>2.16e-007</v>
       </c>
       <c r="C48">
+        <v>2.066742777182704e-007</v>
+      </c>
+      <c r="D48">
         <v>0.9568253598068072</v>
-      </c>
-      <c r="D48">
-        <v>2.066742777182704e-007</v>
       </c>
     </row>
     <row r="49">
@@ -3702,10 +5622,10 @@
         <v>1.053e-006</v>
       </c>
       <c r="C49">
+        <v>8.931256667281215e-007</v>
+      </c>
+      <c r="D49">
         <v>0.8481725230086624</v>
-      </c>
-      <c r="D49">
-        <v>8.931256667281215e-007</v>
       </c>
     </row>
     <row r="50">
@@ -3716,10 +5636,10 @@
         <v>6.77e-006</v>
       </c>
       <c r="C50">
+        <v>6.521534993208238e-006</v>
+      </c>
+      <c r="D50">
         <v>0.9632991127338607</v>
-      </c>
-      <c r="D50">
-        <v>6.521534993208238e-006</v>
       </c>
     </row>
     <row r="51">
@@ -3730,10 +5650,10 @@
         <v>6e-005</v>
       </c>
       <c r="C51">
+        <v>5.369904101939766e-005</v>
+      </c>
+      <c r="D51">
         <v>0.894984016989961</v>
-      </c>
-      <c r="D51">
-        <v>5.369904101939766e-005</v>
       </c>
     </row>
     <row r="52">
@@ -3744,10 +5664,10 @@
         <v>9.42e-005</v>
       </c>
       <c r="C52">
+        <v>8.955315961391932e-005</v>
+      </c>
+      <c r="D52">
         <v>0.9506704842241965</v>
-      </c>
-      <c r="D52">
-        <v>8.955315961391932e-005</v>
       </c>
     </row>
     <row r="53">
@@ -3758,10 +5678,10 @@
         <v>0.000214</v>
       </c>
       <c r="C53">
+        <v>0.0002084751217589009</v>
+      </c>
+      <c r="D53">
         <v>0.9741828119574807</v>
-      </c>
-      <c r="D53">
-        <v>0.0002084751217589009</v>
       </c>
     </row>
     <row r="54">
@@ -3772,10 +5692,10 @@
         <v>0.000871</v>
       </c>
       <c r="C54">
+        <v>0.0009757902950238913</v>
+      </c>
+      <c r="D54">
         <v>1.120310327237533</v>
-      </c>
-      <c r="D54">
-        <v>0.0009757902950238913</v>
       </c>
     </row>
     <row r="55">
@@ -3786,10 +5706,10 @@
         <v>0.0394</v>
       </c>
       <c r="C55">
+        <v>0.02997746864233889</v>
+      </c>
+      <c r="D55">
         <v>0.760849457927383</v>
-      </c>
-      <c r="D55">
-        <v>0.02997746864233889</v>
       </c>
     </row>
     <row r="56">
@@ -3800,10 +5720,10 @@
         <v>0.449</v>
       </c>
       <c r="C56">
+        <v>0.7399955380923077</v>
+      </c>
+      <c r="D56">
         <v>1.648096966798013</v>
-      </c>
-      <c r="D56">
-        <v>0.7399955380923077</v>
       </c>
     </row>
     <row r="57">
@@ -3814,10 +5734,10 @@
         <v>0.95</v>
       </c>
       <c r="C57">
+        <v>1.71047390032745</v>
+      </c>
+      <c r="D57">
         <v>1.800498842449948</v>
-      </c>
-      <c r="D57">
-        <v>1.71047390032745</v>
       </c>
     </row>
     <row r="58">
@@ -3828,10 +5748,10 @@
         <v>0.99</v>
       </c>
       <c r="C58">
+        <v>1.923274173936026</v>
+      </c>
+      <c r="D58">
         <v>1.942701185793966</v>
-      </c>
-      <c r="D58">
-        <v>1.923274173936026</v>
       </c>
     </row>
     <row r="59">
@@ -3842,10 +5762,10 @@
         <v>0.99</v>
       </c>
       <c r="C59">
+        <v>1.984071733694896</v>
+      </c>
+      <c r="D59">
         <v>2.004112862318077</v>
-      </c>
-      <c r="D59">
-        <v>1.984071733694896</v>
       </c>
     </row>
     <row r="60">
@@ -3870,10 +5790,10 @@
         <v>0.99</v>
       </c>
       <c r="C61">
+        <v>2.017474921543611</v>
+      </c>
+      <c r="D61">
         <v>2.037853456104657</v>
-      </c>
-      <c r="D61">
-        <v>2.017474921543611</v>
       </c>
     </row>
     <row r="62">
@@ -3968,10 +5888,10 @@
         <v>3.14</v>
       </c>
       <c r="C68">
+        <v>2.347955579367929</v>
+      </c>
+      <c r="D68">
         <v>0.747756553938831</v>
-      </c>
-      <c r="D68">
-        <v>2.347955579367929</v>
       </c>
     </row>
     <row r="69">
@@ -3982,10 +5902,10 @@
         <v>2.93</v>
       </c>
       <c r="C69">
+        <v>2.485686063511499</v>
+      </c>
+      <c r="D69">
         <v>0.8483570182633102</v>
-      </c>
-      <c r="D69">
-        <v>2.485686063511499</v>
       </c>
     </row>
     <row r="70">
@@ -3996,10 +5916,10 @@
         <v>2.93</v>
       </c>
       <c r="C70">
+        <v>2.575290122734927</v>
+      </c>
+      <c r="D70">
         <v>0.8789386084419547</v>
-      </c>
-      <c r="D70">
-        <v>2.575290122734927</v>
       </c>
     </row>
     <row r="71">
@@ -4010,10 +5930,10 @@
         <v>2.928416666666667</v>
       </c>
       <c r="C71">
+        <v>2.908372717514005</v>
+      </c>
+      <c r="D71">
         <v>0.9931553629711177</v>
-      </c>
-      <c r="D71">
-        <v>2.908372717514005</v>
       </c>
     </row>
     <row r="72">
@@ -4024,10 +5944,10 @@
         <v>3.07775</v>
       </c>
       <c r="C72">
+        <v>3.093120137663417</v>
+      </c>
+      <c r="D72">
         <v>1.004993952615845</v>
-      </c>
-      <c r="D72">
-        <v>3.093120137663417</v>
       </c>
     </row>
     <row r="73">
@@ -4038,10 +5958,10 @@
         <v>3.119166666666667</v>
       </c>
       <c r="C73">
+        <v>3.431279310742555</v>
+      </c>
+      <c r="D73">
         <v>1.100062830053718</v>
-      </c>
-      <c r="D73">
-        <v>3.431279310742555</v>
       </c>
     </row>
     <row r="74">
@@ -4052,10 +5972,10 @@
         <v>3.183166666666667</v>
       </c>
       <c r="C74">
+        <v>3.887175422993697</v>
+      </c>
+      <c r="D74">
         <v>1.221166162519618</v>
-      </c>
-      <c r="D74">
-        <v>3.887175422993697</v>
       </c>
     </row>
     <row r="75">
@@ -4066,10 +5986,10 @@
         <v>3.75</v>
       </c>
       <c r="C75">
+        <v>4.244863935900098</v>
+      </c>
+      <c r="D75">
         <v>1.131963716240026</v>
-      </c>
-      <c r="D75">
-        <v>4.244863935900098</v>
       </c>
     </row>
     <row r="76">
@@ -4080,10 +6000,10 @@
         <v>3.89</v>
       </c>
       <c r="C76">
+        <v>5.12356540884357</v>
+      </c>
+      <c r="D76">
         <v>1.317111930293977</v>
-      </c>
-      <c r="D76">
-        <v>5.12356540884357</v>
       </c>
     </row>
     <row r="77">
@@ -4094,10 +6014,10 @@
         <v>4.11</v>
       </c>
       <c r="C77">
+        <v>5.630166150527582</v>
+      </c>
+      <c r="D77">
         <v>1.369870109617416</v>
-      </c>
-      <c r="D77">
-        <v>5.630166150527582</v>
       </c>
     </row>
     <row r="78">
@@ -4108,10 +6028,10 @@
         <v>4.552518519</v>
       </c>
       <c r="C78">
+        <v>6.858431860994514</v>
+      </c>
+      <c r="D78">
         <v>1.506513775258849</v>
-      </c>
-      <c r="D78">
-        <v>6.858431860994514</v>
       </c>
     </row>
     <row r="79">
@@ -4122,10 +6042,10 @@
         <v>5.49</v>
       </c>
       <c r="C79">
+        <v>8.251678849716484</v>
+      </c>
+      <c r="D79">
         <v>1.503038041842711</v>
-      </c>
-      <c r="D79">
-        <v>8.251678849716484</v>
       </c>
     </row>
     <row r="80">
@@ -4136,10 +6056,10 @@
         <v>8.1236</v>
       </c>
       <c r="C80">
+        <v>11.53661832529044</v>
+      </c>
+      <c r="D80">
         <v>1.420136186578665</v>
-      </c>
-      <c r="D80">
-        <v>11.53661832529044</v>
       </c>
     </row>
     <row r="81">
@@ -4150,10 +6070,10 @@
         <v>9.43</v>
       </c>
       <c r="C81">
+        <v>15.59633044837531</v>
+      </c>
+      <c r="D81">
         <v>1.653905667908304</v>
-      </c>
-      <c r="D81">
-        <v>15.59633044837531</v>
       </c>
     </row>
     <row r="82">
@@ -4164,10 +6084,10 @@
         <v>14.7774461886724</v>
       </c>
       <c r="C82">
+        <v>22.21566503645213</v>
+      </c>
+      <c r="D82">
         <v>1.503349411854497</v>
-      </c>
-      <c r="D82">
-        <v>22.21566503645213</v>
       </c>
     </row>
     <row r="83">
@@ -4178,10 +6098,10 @@
         <v>16.55</v>
       </c>
       <c r="C83">
+        <v>24.49566034639551</v>
+      </c>
+      <c r="D83">
         <v>1.480100323045046</v>
-      </c>
-      <c r="D83">
-        <v>24.49566034639551</v>
       </c>
     </row>
     <row r="84">
@@ -4192,10 +6112,10 @@
         <v>39</v>
       </c>
       <c r="C84">
+        <v>35.13169686422393</v>
+      </c>
+      <c r="D84">
         <v>0.9008127401083059</v>
-      </c>
-      <c r="D84">
-        <v>35.13169686422393</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +6123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -5276,7 +7196,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5297,7 +7217,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5318,7 +7238,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5339,7 +7259,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5363,7 +7283,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5387,7 +7307,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5411,7 +7331,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5435,7 +7355,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5459,7 +7379,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5483,7 +7403,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5507,7 +7427,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5531,7 +7451,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5555,7 +7475,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5579,7 +7499,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5603,7 +7523,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5627,7 +7547,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5651,7 +7571,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5675,7 +7595,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5699,7 +7619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5723,7 +7643,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5747,7 +7667,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5771,7 +7691,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5795,7 +7715,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5819,7 +7739,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5843,7 +7763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5867,7 +7787,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5888,7 +7808,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5909,7 +7829,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5930,7 +7850,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5954,7 +7874,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5975,7 +7895,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6002,7 +7922,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6029,7 +7949,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6056,7 +7976,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6083,7 +8003,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6110,7 +8030,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6137,7 +8057,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6164,7 +8084,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6191,7 +8111,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6218,7 +8138,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6245,7 +8165,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6272,7 +8192,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6299,7 +8219,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6326,7 +8246,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6353,7 +8273,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6380,7 +8300,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6407,7 +8327,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6434,7 +8354,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6461,7 +8381,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6488,7 +8408,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6515,7 +8435,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6542,7 +8462,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6569,7 +8489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6593,7 +8513,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6617,7 +8537,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6641,7 +8561,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6665,7 +8585,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6689,7 +8609,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7823,7 +9743,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C2">
@@ -7842,7 +9762,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C3">
@@ -7861,7 +9781,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C4">
@@ -7880,7 +9800,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C5">
@@ -7899,7 +9819,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C6">
@@ -7918,7 +9838,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C7">
@@ -7937,7 +9857,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C8">
@@ -7956,7 +9876,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C9">
@@ -7975,7 +9895,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C10">
@@ -7994,7 +9914,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C11">
@@ -8013,7 +9933,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C12">
@@ -8032,7 +9952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C13">
@@ -8051,7 +9971,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C14">
@@ -8070,7 +9990,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C15">
@@ -8089,7 +10009,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C16">
@@ -8108,7 +10028,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C17">
@@ -8127,7 +10047,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C18">
@@ -8149,7 +10069,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C19">
@@ -8171,7 +10091,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C20">
@@ -8193,7 +10113,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C21">
@@ -8212,7 +10132,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C22">
@@ -8234,7 +10154,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C23">
@@ -8256,7 +10176,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C24">
@@ -8278,7 +10198,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C25">
@@ -8300,7 +10220,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C26">
@@ -8319,7 +10239,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C27">
@@ -8338,7 +10258,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C28">
@@ -8357,7 +10277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C29">
@@ -8376,7 +10296,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C30">
@@ -8398,7 +10318,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C31">
@@ -8420,7 +10340,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C32">
@@ -8439,7 +10359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C33">
@@ -8458,7 +10378,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C34">
@@ -8477,7 +10397,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C35">
@@ -8499,7 +10419,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C36">
@@ -8518,7 +10438,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C37">
@@ -8537,7 +10457,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C38">
@@ -8556,7 +10476,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C39">
@@ -8575,7 +10495,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C40">
@@ -8594,7 +10514,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C41">
@@ -8616,7 +10536,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C42">
@@ -8641,7 +10561,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C43">
@@ -8669,7 +10589,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C44">
@@ -8697,7 +10617,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C45">
@@ -8725,7 +10645,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C46">
@@ -8753,7 +10673,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C47">
@@ -8784,7 +10704,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C48">
@@ -8815,7 +10735,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C49">
@@ -8852,7 +10772,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C50">
@@ -8889,7 +10809,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C51">
@@ -8926,7 +10846,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C52">
@@ -8963,7 +10883,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C53">
@@ -9000,7 +10920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C54">
@@ -9037,7 +10957,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C55">
@@ -9074,7 +10994,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C56">
@@ -9111,7 +11031,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C57">
@@ -9148,7 +11068,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C58">
@@ -9185,7 +11105,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C59">
@@ -9222,7 +11142,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C60">
@@ -9259,7 +11179,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C61">
@@ -9296,7 +11216,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C62">
@@ -9333,7 +11253,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C63">
@@ -9370,7 +11290,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C64">
@@ -9407,7 +11327,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C65">
@@ -9444,7 +11364,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C66">
@@ -9481,7 +11401,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C67">
@@ -9518,7 +11438,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C68">
@@ -9555,7 +11475,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C69">
@@ -9592,7 +11512,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C70">
@@ -9629,7 +11549,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C71">
@@ -9663,7 +11583,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C72">
@@ -9697,7 +11617,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C73">
@@ -9731,7 +11651,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C74">
@@ -9765,7 +11685,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C75">
@@ -9799,7 +11719,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>usd/barriles</t>
+          <t>USD/barriles</t>
         </is>
       </c>
       <c r="C76">
@@ -12386,7 +14306,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G2">
@@ -12402,7 +14322,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G3">
@@ -12418,7 +14338,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G4">
@@ -12434,7 +14354,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G5">
@@ -12450,7 +14370,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G6">
@@ -12466,7 +14386,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G7">
@@ -12482,7 +14402,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G8">
@@ -12498,7 +14418,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D9">
@@ -12517,7 +14437,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D10">
@@ -12536,7 +14456,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D11">
@@ -12555,7 +14475,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D12">
@@ -12574,7 +14494,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D13">
@@ -12593,7 +14513,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D14">
@@ -12612,7 +14532,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D15">
@@ -12631,7 +14551,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D16">
@@ -12650,7 +14570,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D17">
@@ -12669,7 +14589,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D18">
@@ -12688,7 +14608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D19">
@@ -12707,7 +14627,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D20">
@@ -12726,7 +14646,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D21">
@@ -12745,7 +14665,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D22">
@@ -12764,7 +14684,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D23">
@@ -12783,7 +14703,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D24">
@@ -12802,7 +14722,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D25">
@@ -12821,7 +14741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D26">
@@ -12840,7 +14760,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C27">
@@ -12859,7 +14779,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C28">
@@ -12878,7 +14798,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C29">
@@ -12897,7 +14817,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G30">
@@ -12913,7 +14833,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G31">
@@ -12929,7 +14849,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G32">
@@ -12945,7 +14865,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G33">
@@ -12961,7 +14881,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G34">
@@ -12977,7 +14897,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G35">
@@ -12993,7 +14913,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G36">
@@ -13009,7 +14929,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="G37">
@@ -13025,7 +14945,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E38">
@@ -13044,7 +14964,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E39">
@@ -13063,7 +14983,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E40">
@@ -13085,7 +15005,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E41">
@@ -13107,7 +15027,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E42">
@@ -13129,7 +15049,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E43">
@@ -13151,7 +15071,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E44">
@@ -13173,7 +15093,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E45">
@@ -13195,7 +15115,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E46">
@@ -13217,7 +15137,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E47">
@@ -13239,7 +15159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E48">
@@ -13261,7 +15181,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E49">
@@ -13283,7 +15203,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E50">
@@ -13305,7 +15225,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E51">
@@ -13327,7 +15247,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E52">
@@ -13349,7 +15269,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E53">
@@ -13371,7 +15291,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E54">
@@ -13390,7 +15310,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E55">
@@ -13409,7 +15329,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E56">
@@ -13428,7 +15348,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E57">
@@ -13447,7 +15367,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
     </row>
@@ -13457,7 +15377,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
     </row>
@@ -14650,7 +16570,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D2">
@@ -14663,7 +16583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D3">
@@ -14676,7 +16596,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D4">
@@ -14689,7 +16609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D5">
@@ -14702,7 +16622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D6">
@@ -14715,7 +16635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D7">
@@ -14728,7 +16648,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D8">
@@ -14741,7 +16661,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D9">
@@ -14754,7 +16674,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D10">
@@ -14767,7 +16687,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D11">
@@ -14780,7 +16700,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D12">
@@ -14793,7 +16713,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D13">
@@ -14806,7 +16726,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D14">
@@ -14819,7 +16739,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D15">
@@ -14832,7 +16752,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D16">
@@ -14845,7 +16765,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D17">
@@ -14858,7 +16778,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D18">
@@ -14871,7 +16791,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D19">
@@ -14884,7 +16804,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D20">
@@ -14897,7 +16817,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D21">
@@ -14910,7 +16830,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D22">
@@ -14923,7 +16843,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D23">
@@ -14936,7 +16856,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D24">
@@ -14949,7 +16869,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D25">
@@ -14962,7 +16882,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D26">
@@ -14975,7 +16895,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D27">
@@ -14988,7 +16908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D28">
@@ -15001,7 +16921,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D29">
@@ -15014,7 +16934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D30">
@@ -15027,7 +16947,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D31">
@@ -15040,7 +16960,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D32">
@@ -15053,7 +16973,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D33">
@@ -15066,7 +16986,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D34">
@@ -15079,7 +16999,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D35">
@@ -15092,7 +17012,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D36">
@@ -15105,7 +17025,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D37">
@@ -15118,7 +17038,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D38">
@@ -15131,7 +17051,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D39">
@@ -15144,7 +17064,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D40">
@@ -15157,7 +17077,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D41">
@@ -15170,7 +17090,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D42">
@@ -15186,7 +17106,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D43">
@@ -15202,7 +17122,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C44">
@@ -15224,7 +17144,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C45">
@@ -15246,7 +17166,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C46">
@@ -15271,7 +17191,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C47">
@@ -15296,7 +17216,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D48">
@@ -15312,7 +17232,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D49">
@@ -15328,7 +17248,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D50">
@@ -15347,7 +17267,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="D51">
@@ -15366,7 +17286,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C52">
@@ -15394,7 +17314,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C53">
@@ -15419,7 +17339,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C54">
@@ -15447,7 +17367,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C55">
@@ -15475,7 +17395,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C56">
@@ -15503,7 +17423,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C57">
@@ -15531,7 +17451,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C58">
@@ -15559,7 +17479,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C59">
@@ -15587,7 +17507,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C60">
@@ -15612,7 +17532,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C61">
@@ -15637,7 +17557,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C62">
@@ -15662,7 +17582,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C63">
@@ -15687,7 +17607,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C64">
@@ -15724,7 +17644,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C65">
@@ -15779,7 +17699,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C66">
@@ -15834,7 +17754,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C67">
@@ -15886,7 +17806,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C68">
@@ -15941,7 +17861,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C69">
@@ -15996,7 +17916,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C70">
@@ -16057,7 +17977,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C71">
@@ -16121,7 +18041,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C72">
@@ -16194,7 +18114,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C73">
@@ -16267,7 +18187,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C74">
@@ -16340,7 +18260,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C75">
@@ -16413,7 +18333,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C76">
@@ -16489,7 +18409,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C77">
@@ -16568,7 +18488,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C78">
@@ -16647,7 +18567,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C79">
@@ -16729,7 +18649,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C80">
@@ -16811,7 +18731,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C81">
@@ -16896,7 +18816,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C82">
@@ -16984,7 +18904,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C83">
@@ -17072,7 +18992,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C84">
@@ -17160,7 +19080,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C85">
@@ -17251,7 +19171,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C86">
@@ -17342,7 +19262,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C87">
@@ -17433,7 +19353,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C88">
@@ -17524,7 +19444,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C89">
@@ -17618,7 +19538,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C90">
@@ -17712,7 +19632,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C91">
@@ -17806,7 +19726,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C92">
@@ -17900,7 +19820,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C93">
@@ -17991,7 +19911,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C94">
@@ -18082,7 +20002,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C95">
@@ -18170,7 +20090,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C96">
@@ -18258,7 +20178,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C97">
@@ -18346,7 +20266,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="C98">
@@ -18434,7 +20354,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>usd/MMBTU</t>
+          <t>USD/MMBTU</t>
         </is>
       </c>
       <c r="E99">

--- a/analisis/resultados/argentina/variables.xlsx
+++ b/analisis/resultados/argentina/variables.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>crudo_sec_energia</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>eia</t>
         </is>
       </c>
@@ -1258,6 +1263,9 @@
       <c r="H41">
         <v>23460954</v>
       </c>
+      <c r="I41">
+        <v>23460954</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1274,10 +1282,13 @@
         </is>
       </c>
       <c r="D42">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="H42">
         <v>24467322</v>
+      </c>
+      <c r="I42">
+        <v>24464806.08</v>
       </c>
     </row>
     <row r="43">
@@ -1300,6 +1311,9 @@
       <c r="H43">
         <v>24819550.8</v>
       </c>
+      <c r="I43">
+        <v>24819550.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1316,10 +1330,13 @@
         </is>
       </c>
       <c r="D44">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="H44">
         <v>28499083.8</v>
+      </c>
+      <c r="I44">
+        <v>28501599.72</v>
       </c>
     </row>
     <row r="45">
@@ -1337,10 +1354,13 @@
         </is>
       </c>
       <c r="D45">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="H45">
         <v>29574639.6</v>
+      </c>
+      <c r="I45">
+        <v>29572123.68</v>
       </c>
     </row>
     <row r="46">
@@ -1358,10 +1378,13 @@
         </is>
       </c>
       <c r="D46">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="H46">
         <v>30505530</v>
+      </c>
+      <c r="I46">
+        <v>30504272.04</v>
       </c>
     </row>
     <row r="47">
@@ -1379,10 +1402,13 @@
         </is>
       </c>
       <c r="D47">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="H47">
         <v>31015003.8</v>
+      </c>
+      <c r="I47">
+        <v>31011858.9</v>
       </c>
     </row>
     <row r="48">
@@ -1400,10 +1426,13 @@
         </is>
       </c>
       <c r="D48">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="H48">
         <v>33952340.4</v>
+      </c>
+      <c r="I48">
+        <v>33951711.41999999</v>
       </c>
     </row>
     <row r="49">
@@ -1421,10 +1450,13 @@
         </is>
       </c>
       <c r="D49">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="H49">
         <v>35656876.2</v>
+      </c>
+      <c r="I49">
+        <v>35656247.22</v>
       </c>
     </row>
     <row r="50">
@@ -1442,10 +1474,13 @@
         </is>
       </c>
       <c r="D50">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="H50">
         <v>44575812.59999999</v>
+      </c>
+      <c r="I50">
+        <v>44578328.52</v>
       </c>
     </row>
     <row r="51">
@@ -1463,10 +1498,13 @@
         </is>
       </c>
       <c r="D51">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="H51">
         <v>63860339.4</v>
+      </c>
+      <c r="I51">
+        <v>63859811.05679999</v>
       </c>
     </row>
     <row r="52">
@@ -1484,10 +1522,13 @@
         </is>
       </c>
       <c r="D52">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="H52">
         <v>84459434.39999999</v>
+      </c>
+      <c r="I52">
+        <v>84461610.6708</v>
       </c>
     </row>
     <row r="53">
@@ -1505,10 +1546,13 @@
         </is>
       </c>
       <c r="D53">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="H53">
         <v>98208937.19999999</v>
+      </c>
+      <c r="I53">
+        <v>98205911.8062</v>
       </c>
     </row>
     <row r="54">
@@ -1526,10 +1570,13 @@
         </is>
       </c>
       <c r="D54">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="H54">
         <v>97139671.19999999</v>
+      </c>
+      <c r="I54">
+        <v>97140620.95979999</v>
       </c>
     </row>
     <row r="55">
@@ -1547,10 +1594,13 @@
         </is>
       </c>
       <c r="D55">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="H55">
         <v>100278281.4</v>
+      </c>
+      <c r="I55">
+        <v>100275727.7412</v>
       </c>
     </row>
     <row r="56">
@@ -1568,10 +1618,13 @@
         </is>
       </c>
       <c r="D56">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="H56">
         <v>99536085</v>
+      </c>
+      <c r="I56">
+        <v>98276326.11719999</v>
       </c>
     </row>
     <row r="57">
@@ -1589,10 +1642,13 @@
         </is>
       </c>
       <c r="D57">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="H57">
         <v>104756619</v>
+      </c>
+      <c r="I57">
+        <v>104759675.8428</v>
       </c>
     </row>
     <row r="58">
@@ -1610,10 +1666,13 @@
         </is>
       </c>
       <c r="D58">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="H58">
         <v>114675633.6</v>
+      </c>
+      <c r="I58">
+        <v>114673312.6638</v>
       </c>
     </row>
     <row r="59">
@@ -1631,10 +1690,13 @@
         </is>
       </c>
       <c r="D59">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="H59">
         <v>125500379.4</v>
+      </c>
+      <c r="I59">
+        <v>125488170.8982</v>
       </c>
     </row>
     <row r="60">
@@ -1652,10 +1714,13 @@
         </is>
       </c>
       <c r="D60">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="H60">
         <v>126846396.6</v>
+      </c>
+      <c r="I60">
+        <v>130081536.3606</v>
       </c>
     </row>
     <row r="61">
@@ -1673,10 +1738,13 @@
         </is>
       </c>
       <c r="D61">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="H61">
         <v>143420019.6</v>
+      </c>
+      <c r="I61">
+        <v>143397621.6222</v>
       </c>
     </row>
     <row r="62">
@@ -1694,10 +1762,13 @@
         </is>
       </c>
       <c r="D62">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="H62">
         <v>154458618.6</v>
+      </c>
+      <c r="I62">
+        <v>154510553.4786</v>
       </c>
     </row>
     <row r="63">
@@ -1715,10 +1786,13 @@
         </is>
       </c>
       <c r="D63">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="H63">
         <v>158471511</v>
+      </c>
+      <c r="I63">
+        <v>158461780.6794</v>
       </c>
     </row>
     <row r="64">
@@ -1736,10 +1810,13 @@
         </is>
       </c>
       <c r="D64">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="H64">
         <v>153722712</v>
+      </c>
+      <c r="I64">
+        <v>153728574.0936</v>
       </c>
     </row>
     <row r="65">
@@ -1757,10 +1834,13 @@
         </is>
       </c>
       <c r="D65">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="H65">
         <v>151093575.6</v>
+      </c>
+      <c r="I65">
+        <v>151095236.1072</v>
       </c>
     </row>
     <row r="66">
@@ -1778,10 +1858,13 @@
         </is>
       </c>
       <c r="D66">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="H66">
         <v>144464126.4</v>
+      </c>
+      <c r="I66">
+        <v>144465535.3152</v>
       </c>
     </row>
     <row r="67">
@@ -1799,10 +1882,13 @@
         </is>
       </c>
       <c r="D67">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="H67">
         <v>145590000.6</v>
+      </c>
+      <c r="I67">
+        <v>145592912.7774</v>
       </c>
     </row>
     <row r="68">
@@ -1820,10 +1906,13 @@
         </is>
       </c>
       <c r="D68">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="H68">
         <v>157540620.6</v>
+      </c>
+      <c r="I68">
+        <v>157542721.3932</v>
       </c>
     </row>
     <row r="69">
@@ -1841,10 +1930,13 @@
         </is>
       </c>
       <c r="D69">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="H69">
         <v>165138699</v>
+      </c>
+      <c r="I69">
+        <v>165137944.224</v>
       </c>
     </row>
     <row r="70">
@@ -1862,10 +1954,13 @@
         </is>
       </c>
       <c r="D70">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="H70">
         <v>172554373.2</v>
+      </c>
+      <c r="I70">
+        <v>172553838.567</v>
       </c>
     </row>
     <row r="71">
@@ -1883,12 +1978,15 @@
         </is>
       </c>
       <c r="D71">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="H71">
         <v>179674426.8</v>
       </c>
       <c r="I71">
+        <v>179675709.9192</v>
+      </c>
+      <c r="J71">
         <v>179215000</v>
       </c>
     </row>
@@ -1907,12 +2005,15 @@
         </is>
       </c>
       <c r="D72">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="H72">
         <v>181473309.6</v>
       </c>
       <c r="I72">
+        <v>181475630.5362</v>
+      </c>
+      <c r="J72">
         <v>181040000</v>
       </c>
     </row>
@@ -1931,12 +2032,15 @@
         </is>
       </c>
       <c r="D73">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="H73">
         <v>179070606</v>
       </c>
       <c r="I73">
+        <v>179071260.1392</v>
+      </c>
+      <c r="J73">
         <v>179215000</v>
       </c>
     </row>
@@ -1955,12 +2059,15 @@
         </is>
       </c>
       <c r="D74">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="H74">
         <v>179095765.2</v>
       </c>
       <c r="I74">
+        <v>179096469.6576</v>
+      </c>
+      <c r="J74">
         <v>179215000</v>
       </c>
     </row>
@@ -1979,12 +2086,15 @@
         </is>
       </c>
       <c r="D75">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="H75">
         <v>175095452.4</v>
       </c>
       <c r="I75">
+        <v>175096653.7518</v>
+      </c>
+      <c r="J75">
         <v>174470000</v>
       </c>
     </row>
@@ -2003,12 +2113,15 @@
         </is>
       </c>
       <c r="D76">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="H76">
         <v>167780415</v>
       </c>
       <c r="I76">
+        <v>167780798.6778</v>
+      </c>
+      <c r="J76">
         <v>167900000</v>
       </c>
     </row>
@@ -2027,12 +2140,15 @@
         </is>
       </c>
       <c r="D77">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="H77">
         <v>158370874.2</v>
       </c>
       <c r="I77">
+        <v>158370534.5508</v>
+      </c>
+      <c r="J77">
         <v>158410000</v>
       </c>
     </row>
@@ -2051,12 +2167,15 @@
         </is>
       </c>
       <c r="D78">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="H78">
         <v>156345558.6</v>
       </c>
       <c r="I78">
+        <v>156346426.5924</v>
+      </c>
+      <c r="J78">
         <v>156220000</v>
       </c>
     </row>
@@ -2075,12 +2194,15 @@
         </is>
       </c>
       <c r="D79">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="H79">
         <v>164308445.4</v>
       </c>
       <c r="I79">
+        <v>164306432.664</v>
+      </c>
+      <c r="J79">
         <v>163885000</v>
       </c>
     </row>
@@ -2099,12 +2221,15 @@
         </is>
       </c>
       <c r="D80">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="H80">
         <v>168019427.4</v>
       </c>
       <c r="I80">
+        <v>168021213.7032</v>
+      </c>
+      <c r="J80">
         <v>167900000</v>
       </c>
     </row>
@@ -2123,12 +2248,15 @@
         </is>
       </c>
       <c r="D81">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="H81">
         <v>176139559.2</v>
       </c>
       <c r="I81">
+        <v>176139785.6328</v>
+      </c>
+      <c r="J81">
         <v>176295000</v>
       </c>
     </row>
@@ -2147,7 +2275,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2156,6 +2284,9 @@
         <v>180020365.8</v>
       </c>
       <c r="I82">
+        <v>180017346.696</v>
+      </c>
+      <c r="J82">
         <v>177025000</v>
       </c>
     </row>
@@ -2174,7 +2305,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2183,6 +2314,9 @@
         <v>202820890.8</v>
       </c>
       <c r="I83">
+        <v>202821544.9392</v>
+      </c>
+      <c r="J83">
         <v>201845000</v>
       </c>
     </row>
@@ -2201,7 +2335,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2210,6 +2344,9 @@
         <v>216709977.407682</v>
       </c>
       <c r="I84">
+        <v>216666596.091</v>
+      </c>
+      <c r="J84">
         <v>216810168</v>
       </c>
     </row>
@@ -2228,7 +2365,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2237,6 +2374,9 @@
         <v>243705394.8377136</v>
       </c>
       <c r="I85">
+        <v>243619496.0958</v>
+      </c>
+      <c r="J85">
         <v>237290000</v>
       </c>
     </row>
@@ -2255,7 +2395,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2264,6 +2404,9 @@
         <v>262532039.2366254</v>
       </c>
       <c r="I86">
+        <v>262532037.834</v>
+      </c>
+      <c r="J86">
         <v>260820000</v>
       </c>
     </row>
@@ -2282,7 +2425,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2291,6 +2434,9 @@
         <v>286623718.1403618</v>
       </c>
       <c r="I87">
+        <v>286623720.3984</v>
+      </c>
+      <c r="J87">
         <v>275934016.3934426</v>
       </c>
     </row>
@@ -2309,7 +2455,7 @@
         </is>
       </c>
       <c r="D88">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2318,6 +2464,9 @@
         <v>304444926.5869968</v>
       </c>
       <c r="I88">
+        <v>304444925.2284</v>
+      </c>
+      <c r="J88">
         <v>304290000</v>
       </c>
     </row>
@@ -2336,7 +2485,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="E89">
         <v>296505952.436694</v>
@@ -2345,6 +2494,9 @@
         <v>309128920.3372326</v>
       </c>
       <c r="I89">
+        <v>309128920.419</v>
+      </c>
+      <c r="J89">
         <v>309040000</v>
       </c>
     </row>
@@ -2363,7 +2515,7 @@
         </is>
       </c>
       <c r="D90">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="E90">
         <v>277696772.554344</v>
@@ -2372,9 +2524,12 @@
         <v>281195635.2446406</v>
       </c>
       <c r="G90">
-        <v>298550679.4023428</v>
+        <v>286730758.4788152</v>
       </c>
       <c r="I90">
+        <v>280944389.517</v>
+      </c>
+      <c r="J90">
         <v>292815000</v>
       </c>
     </row>
@@ -2393,7 +2548,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="E91">
         <v>269251895.298342</v>
@@ -2402,9 +2557,12 @@
         <v>265524541.9364406</v>
       </c>
       <c r="G91">
-        <v>283677273.7401372</v>
+        <v>271988857.2113988</v>
       </c>
       <c r="I91">
+        <v>272277680.3868</v>
+      </c>
+      <c r="J91">
         <v>277816857.9234973</v>
       </c>
     </row>
@@ -2423,7 +2581,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="E92">
         <v>271502835.1445519</v>
@@ -2432,9 +2590,12 @@
         <v>274056010.5168138</v>
       </c>
       <c r="G92">
-        <v>296445681.717603</v>
+        <v>280350177.7010682</v>
       </c>
       <c r="I92">
+        <v>280631962.5714</v>
+      </c>
+      <c r="J92">
         <v>292876000</v>
       </c>
     </row>
@@ -2453,7 +2614,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="E93">
         <v>263813107.565568</v>
@@ -2462,9 +2623,12 @@
         <v>269745373.1808924</v>
       </c>
       <c r="G93">
-        <v>292462821.4080672</v>
+        <v>276359551.2811254</v>
       </c>
       <c r="I93">
+        <v>276503268.6636</v>
+      </c>
+      <c r="J93">
         <v>291688654.9999999</v>
       </c>
     </row>
@@ -2483,7 +2647,7 @@
         </is>
       </c>
       <c r="D94">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="E94">
         <v>253178470.27869</v>
@@ -2492,9 +2656,12 @@
         <v>261961787.5965599</v>
       </c>
       <c r="G94">
-        <v>285926125.4073411</v>
+        <v>270390706.7552394</v>
       </c>
       <c r="I94">
+        <v>270191278.2492</v>
+      </c>
+      <c r="J94">
         <v>285834055</v>
       </c>
     </row>
@@ -2513,7 +2680,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="E95">
         <v>238558430.5401</v>
@@ -2522,9 +2689,12 @@
         <v>246462265.9495606</v>
       </c>
       <c r="G95">
-        <v>268899195.5961115</v>
+        <v>254764943.6280604</v>
       </c>
       <c r="I95">
+        <v>254315156.3304</v>
+      </c>
+      <c r="J95">
         <v>267421265</v>
       </c>
     </row>
@@ -2543,7 +2713,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="E96">
         <v>223865031.165864</v>
@@ -2552,9 +2722,12 @@
         <v>235333293.6560663</v>
       </c>
       <c r="G96">
-        <v>257469922.2817313</v>
+        <v>242735039.6008613</v>
       </c>
       <c r="I96">
+        <v>242613090.357</v>
+      </c>
+      <c r="J96">
         <v>256832160</v>
       </c>
     </row>
@@ -2573,7 +2746,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="E97">
         <v>222152436.622512</v>
@@ -2582,9 +2755,12 @@
         <v>234258115.8729834</v>
       </c>
       <c r="G97">
-        <v>254181417.6250523</v>
+        <v>240581576.8069494</v>
       </c>
       <c r="I97">
+        <v>241190771.5932</v>
+      </c>
+      <c r="J97">
         <v>254204945</v>
       </c>
     </row>
@@ -2603,7 +2779,7 @@
         </is>
       </c>
       <c r="D98">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="E98">
         <v>214937898.841974</v>
@@ -2612,9 +2788,12 @@
         <v>231623045.4574073</v>
       </c>
       <c r="G98">
-        <v>247773030.6396965</v>
+        <v>234634843.6031154</v>
       </c>
       <c r="I98">
+        <v>238412145.5166</v>
+      </c>
+      <c r="J98">
         <v>247753341</v>
       </c>
     </row>
@@ -2633,7 +2812,7 @@
         </is>
       </c>
       <c r="D99">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="E99">
         <v>208059287.328816</v>
@@ -2642,9 +2821,12 @@
         <v>229046372.8773673</v>
       </c>
       <c r="G99">
-        <v>242036137.7849751</v>
+        <v>229813564.9117473</v>
       </c>
       <c r="I99">
+        <v>236452111.7508</v>
+      </c>
+      <c r="J99">
         <v>241343561.7622951</v>
       </c>
     </row>
@@ -2663,7 +2845,7 @@
         </is>
       </c>
       <c r="D100">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="E100">
         <v>204941825.82654</v>
@@ -2672,9 +2854,12 @@
         <v>220344493.9499344</v>
       </c>
       <c r="G100">
-        <v>220344493.9499344</v>
+        <v>213397024.3424316</v>
       </c>
       <c r="I100">
+        <v>227941980.9018</v>
+      </c>
+      <c r="J100">
         <v>237681193</v>
       </c>
     </row>
@@ -2693,7 +2878,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="E101">
         <v>197987224.534968</v>
@@ -2702,9 +2887,12 @@
         <v>215106366.4088183</v>
       </c>
       <c r="G101">
-        <v>215106366.4088183</v>
+        <v>208580088.7315464</v>
       </c>
       <c r="I101">
+        <v>222743303.9568</v>
+      </c>
+      <c r="J101">
         <v>228510472</v>
       </c>
     </row>
@@ -2723,7 +2911,7 @@
         </is>
       </c>
       <c r="D102">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="E102">
         <v>184055431.065858</v>
@@ -2732,9 +2920,12 @@
         <v>202002442.1947765</v>
       </c>
       <c r="G102">
-        <v>202002442.1947765</v>
+        <v>195537811.3781638</v>
       </c>
       <c r="I102">
+        <v>209615629.6542</v>
+      </c>
+      <c r="J102">
         <v>212222926</v>
       </c>
     </row>
@@ -2753,7 +2944,7 @@
         </is>
       </c>
       <c r="D103">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="E103">
         <v>183502681.429122</v>
@@ -2762,9 +2953,12 @@
         <v>201076103.5525829</v>
       </c>
       <c r="G103">
-        <v>201076103.5525829</v>
+        <v>194697351.5555712</v>
       </c>
       <c r="I103">
+        <v>208440946.6062</v>
+      </c>
+      <c r="J103">
         <v>201158723.2103826</v>
       </c>
     </row>
@@ -2783,7 +2977,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="E104">
         <v>173900142.644778</v>
@@ -2792,9 +2986,12 @@
         <v>197077899.6772364</v>
       </c>
       <c r="G104">
-        <v>197077899.6772364</v>
+        <v>191127640.8857732</v>
       </c>
       <c r="I104">
+        <v>204173770.1718</v>
+      </c>
+      <c r="J104">
         <v>197044731</v>
       </c>
     </row>
@@ -2813,7 +3010,7 @@
         </is>
       </c>
       <c r="D105">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="E105">
         <v>174504828.418074</v>
@@ -2822,9 +3019,12 @@
         <v>194226984.4178757</v>
       </c>
       <c r="G105">
-        <v>194226984.4178757</v>
+        <v>187966208.4081289</v>
       </c>
       <c r="I105">
+        <v>201146495.7216</v>
+      </c>
+      <c r="J105">
         <v>194238283</v>
       </c>
     </row>
@@ -2843,7 +3043,7 @@
         </is>
       </c>
       <c r="D106">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="E106">
         <v>175540962.0789</v>
@@ -2852,9 +3052,12 @@
         <v>194339835.4062838</v>
       </c>
       <c r="G106">
-        <v>194339835.4062838</v>
+        <v>186094035.0646779</v>
       </c>
       <c r="I106">
+        <v>201105366.7194</v>
+      </c>
+      <c r="J106">
         <v>194267150</v>
       </c>
     </row>
@@ -2873,7 +3076,7 @@
         </is>
       </c>
       <c r="D107">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="E107">
         <v>166419125.914008</v>
@@ -2882,9 +3085,9 @@
         <v>186858772.4536606</v>
       </c>
       <c r="G107">
-        <v>186858772.4536606</v>
-      </c>
-      <c r="I107">
+        <v>178180149.422684</v>
+      </c>
+      <c r="J107">
         <v>186354439.8907104</v>
       </c>
     </row>
@@ -2903,7 +3106,7 @@
         </is>
       </c>
       <c r="D108">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="E108">
         <v>157994322.42891</v>
@@ -2912,9 +3115,9 @@
         <v>175065754.5388151</v>
       </c>
       <c r="G108">
-        <v>175065754.5388151</v>
-      </c>
-      <c r="I108">
+        <v>166357510.9765998</v>
+      </c>
+      <c r="J108">
         <v>174997000</v>
       </c>
     </row>
@@ -2933,7 +3136,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="E109">
         <v>158983017.789156</v>
@@ -2942,9 +3145,9 @@
         <v>178663117.0198723</v>
       </c>
       <c r="G109">
-        <v>178663117.0198723</v>
-      </c>
-      <c r="I109">
+        <v>169528964.5768283</v>
+      </c>
+      <c r="J109">
         <v>178587000</v>
       </c>
     </row>
@@ -2963,7 +3166,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="E110">
         <v>175647454.116618</v>
@@ -2972,9 +3175,9 @@
         <v>169624009.346484</v>
       </c>
       <c r="G110">
-        <v>185655272.5290866</v>
-      </c>
-      <c r="I110">
+        <v>175152024.2241997</v>
+      </c>
+      <c r="J110">
         <v>185143000</v>
       </c>
     </row>
@@ -2993,13 +3196,13 @@
         </is>
       </c>
       <c r="D111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="E111">
         <v>168517790.394096</v>
       </c>
       <c r="G111">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
     </row>
   </sheetData>
@@ -16401,7 +16604,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE99"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16563,6 +16766,11 @@
           <t>precio_impo_gas_bolivia_idee</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>precio_exportacion_gas_ar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -17099,6 +17307,9 @@
       <c r="AA42">
         <v>0.8318866410727309</v>
       </c>
+      <c r="AF42">
+        <v>0.8318866410727309</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -17115,6 +17326,9 @@
       <c r="AA43">
         <v>0.9089018014224704</v>
       </c>
+      <c r="AF43">
+        <v>0.9089018014224704</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -17137,6 +17351,9 @@
       <c r="AA44">
         <v>1.051371001612714</v>
       </c>
+      <c r="AF44">
+        <v>1.051371001612714</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -17159,6 +17376,9 @@
       <c r="AA45">
         <v>2.037615891092793</v>
       </c>
+      <c r="AF45">
+        <v>2.037615891092793</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -17184,6 +17404,9 @@
       <c r="AA46">
         <v>1.957538280304303</v>
       </c>
+      <c r="AF46">
+        <v>1.957538280304303</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -17209,6 +17432,9 @@
       <c r="AA47">
         <v>1.436038605971082</v>
       </c>
+      <c r="AF47">
+        <v>1.436038605971082</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -17225,6 +17451,9 @@
       <c r="AA48">
         <v>1.445327357073788</v>
       </c>
+      <c r="AF48">
+        <v>1.445327357073788</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -17241,6 +17470,9 @@
       <c r="AA49">
         <v>2.1209250074223</v>
       </c>
+      <c r="AF49">
+        <v>2.1209250074223</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -17260,6 +17492,9 @@
       <c r="AE50">
         <v>0.02254266198781194</v>
       </c>
+      <c r="AF50">
+        <v>21.30866505067026</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -17279,6 +17514,9 @@
       <c r="AE51">
         <v>0.01829265654613626</v>
       </c>
+      <c r="AF51">
+        <v>1.29993711536583</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -17307,6 +17545,9 @@
       <c r="AE52">
         <v>0.009827108177238794</v>
       </c>
+      <c r="AF52">
+        <v>1.373140068862079</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -17360,6 +17601,9 @@
       <c r="AE54">
         <v>0.4467144861111061</v>
       </c>
+      <c r="AF54">
+        <v>4.372788350819689</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -17388,6 +17632,9 @@
       <c r="AE55">
         <v>0.4438886967029549</v>
       </c>
+      <c r="AF55">
+        <v>8.021100203987395</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -17416,6 +17663,9 @@
       <c r="AE56">
         <v>0.8088474529926005</v>
       </c>
+      <c r="AF56">
+        <v>3.586042915430765</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -17444,6 +17694,9 @@
       <c r="AE57">
         <v>0.8611112892950702</v>
       </c>
+      <c r="AF57">
+        <v>4.252913691588782</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -17472,6 +17725,9 @@
       <c r="AE58">
         <v>1.182365863629391</v>
       </c>
+      <c r="AF58">
+        <v>4.148195219968046</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -17500,6 +17756,9 @@
       <c r="AE59">
         <v>1.618743363988255</v>
       </c>
+      <c r="AF59">
+        <v>64.61958377621842</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -17637,6 +17896,9 @@
       <c r="AE64">
         <v>5.185622704391083</v>
       </c>
+      <c r="AF64">
+        <v>4.248420622889434</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -17692,6 +17954,9 @@
       <c r="AE65">
         <v>4.846383917621269</v>
       </c>
+      <c r="AF65">
+        <v>4.940689928340737</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -17747,6 +18012,9 @@
       <c r="AE66">
         <v>4.419850350373635</v>
       </c>
+      <c r="AF66">
+        <v>3.684813830284334</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -17799,6 +18067,9 @@
       <c r="AE67">
         <v>3.56521490403541</v>
       </c>
+      <c r="AF67">
+        <v>2.709738967920281</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -17854,6 +18125,9 @@
       <c r="AE68">
         <v>3.87343326092505</v>
       </c>
+      <c r="AF68">
+        <v>2.284428477397904</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -17909,6 +18183,9 @@
       <c r="AA69">
         <v>2.079506803440119</v>
       </c>
+      <c r="AF69">
+        <v>2.079506803440119</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -17970,6 +18247,9 @@
       <c r="AA70">
         <v>3.408317336255978</v>
       </c>
+      <c r="AF70">
+        <v>3.408317336255978</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -18034,6 +18314,9 @@
       <c r="AA71">
         <v>3.464216042514136</v>
       </c>
+      <c r="AF71">
+        <v>3.464216042514136</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -18107,6 +18390,9 @@
       <c r="AA72">
         <v>3.665020555443315</v>
       </c>
+      <c r="AF72">
+        <v>3.665020555443315</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -18180,6 +18466,9 @@
       <c r="AA73">
         <v>3.256406912525298</v>
       </c>
+      <c r="AF73">
+        <v>3.256406912525298</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -18253,6 +18542,9 @@
       <c r="AA74">
         <v>2.984551364309292</v>
       </c>
+      <c r="AF74">
+        <v>2.984551364309292</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -18326,6 +18618,9 @@
       <c r="AA75">
         <v>3.429053614069236</v>
       </c>
+      <c r="AF75">
+        <v>3.429053614069236</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -18402,6 +18697,9 @@
       <c r="AA76">
         <v>4.155343789725977</v>
       </c>
+      <c r="AF76">
+        <v>4.155343789725977</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -18481,6 +18779,9 @@
       <c r="AA77">
         <v>2.078268356618913</v>
       </c>
+      <c r="AF77">
+        <v>2.078268356618913</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -18560,6 +18861,9 @@
       <c r="AA78">
         <v>1.671684856960096</v>
       </c>
+      <c r="AF78">
+        <v>1.671684856960096</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -18642,6 +18946,9 @@
       <c r="AB79">
         <v>1.162095453656468</v>
       </c>
+      <c r="AF79">
+        <v>1.162095453656468</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -18724,6 +19031,9 @@
       <c r="AB80">
         <v>1.252036969292027</v>
       </c>
+      <c r="AF80">
+        <v>1.252036969292027</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -18809,6 +19119,9 @@
       <c r="AD81">
         <v>1.480777821098501</v>
       </c>
+      <c r="AF81">
+        <v>1.480763595628035</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -18897,6 +19210,9 @@
       <c r="AD82">
         <v>1.304798471253267</v>
       </c>
+      <c r="AF82">
+        <v>1.304790888533957</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -18985,6 +19301,9 @@
       <c r="AD83">
         <v>1.392077577851077</v>
       </c>
+      <c r="AF83">
+        <v>1.39207231120329</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -19073,6 +19392,9 @@
       <c r="AD84">
         <v>1.552117117365051</v>
       </c>
+      <c r="AF84">
+        <v>1.552128439011633</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -19164,6 +19486,9 @@
       <c r="AD85">
         <v>1.799174085442669</v>
       </c>
+      <c r="AF85">
+        <v>1.80499070801215</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -19255,6 +19580,9 @@
       <c r="AD86">
         <v>2.388111405986719</v>
       </c>
+      <c r="AF86">
+        <v>2.388092855380338</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -19346,6 +19674,9 @@
       <c r="AD87">
         <v>4.497061542002228</v>
       </c>
+      <c r="AF87">
+        <v>4.497059288764902</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -19437,6 +19768,9 @@
       <c r="AD88">
         <v>12.94146938757456</v>
       </c>
+      <c r="AF88">
+        <v>12.94147669805176</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -19531,6 +19865,9 @@
       <c r="AD89">
         <v>11.32325440105638</v>
       </c>
+      <c r="AF89">
+        <v>11.32325264022676</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -19625,6 +19962,9 @@
       <c r="AD90">
         <v>15.05933435086689</v>
       </c>
+      <c r="AF90">
+        <v>12.57553709973752</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -19719,6 +20059,9 @@
       <c r="AD91">
         <v>17.38513548694696</v>
       </c>
+      <c r="AF91">
+        <v>16.17958801155788</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -19813,6 +20156,9 @@
       <c r="AD92">
         <v>18.50938626203065</v>
       </c>
+      <c r="AF92">
+        <v>18.50937721603621</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -19904,6 +20250,9 @@
       <c r="AD93">
         <v>20.81605896164487</v>
       </c>
+      <c r="AF93">
+        <v>20.81605585661363</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -19995,6 +20344,9 @@
       <c r="AD94">
         <v>20.61546866803634</v>
       </c>
+      <c r="AF94">
+        <v>20.6154716078505</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -20083,6 +20435,9 @@
       <c r="AC95">
         <v>29.59222545954335</v>
       </c>
+      <c r="AF95">
+        <v>19.87283664056364</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -20171,6 +20526,9 @@
       <c r="AC96">
         <v>22.55287989243312</v>
       </c>
+      <c r="AF96">
+        <v>14.55110287725587</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -20259,6 +20617,9 @@
       <c r="AC97">
         <v>11.52915501452003</v>
       </c>
+      <c r="AF97">
+        <v>7.294269175395665</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -20346,6 +20707,9 @@
       </c>
       <c r="AC98">
         <v>9.805284572691219</v>
+      </c>
+      <c r="AF98">
+        <v>6.295455362364702</v>
       </c>
     </row>
     <row r="99">

--- a/analisis/resultados/argentina/variables.xlsx
+++ b/analisis/resultados/argentina/variables.xlsx
@@ -8831,7 +8831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8873,11 +8873,6 @@
           <t>expo_comtrade_crudo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>dif</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -9323,7 +9318,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>39566652.3671298</v>
+        <v>66209162.2566298</v>
       </c>
       <c r="D34">
         <v>39566652.3671298</v>
@@ -9342,7 +9337,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>72848661.85889886</v>
+        <v>88121303.2415846</v>
       </c>
       <c r="D35">
         <v>72848661.85889886</v>
@@ -9361,7 +9356,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>118623835.5705348</v>
+        <v>103610629.199821</v>
       </c>
       <c r="D36">
         <v>118623835.5705348</v>
@@ -9380,7 +9375,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>122350382.8253784</v>
+        <v>104005003.708477</v>
       </c>
       <c r="D37">
         <v>122350382.8253784</v>
@@ -9399,7 +9394,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>120668555.2790124</v>
+        <v>107523445.730744</v>
       </c>
       <c r="D38">
         <v>120668555.2790124</v>
@@ -9416,9 +9411,6 @@
         <is>
           <t>barriles</t>
         </is>
-      </c>
-      <c r="C39">
-        <v>89549617.0844461</v>
       </c>
       <c r="G39">
         <v>89549617.0844461</v>
